--- a/_WIP/Michi/Michi-Zeiterfassung.xlsx
+++ b/_WIP/Michi/Michi-Zeiterfassung.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lazarus\Documents\GitHub\Voodoo\_WIP\Michi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -446,7 +441,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -1032,7 +1027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1042,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,11 +1505,15 @@
       <c r="B29" s="13">
         <v>0.41319444444444442</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
       <c r="E29" s="9">
         <f t="shared" si="2"/>
-        <v>-9.9166666666666661</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -1574,7 +1573,7 @@
       </c>
       <c r="E33" s="21">
         <f>SUM(E26:E32)</f>
-        <v>-9.9166666666666661</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1589,7 +1588,7 @@
       </c>
       <c r="E34" s="22">
         <f>SUM(E13+E23+E33)</f>
-        <v>-2.9166666666666661</v>
+        <v>12.083333333333332</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1750,7 +1749,7 @@
       </c>
       <c r="E44" s="22">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>-2.9166666666666661</v>
+        <v>12.083333333333332</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1911,7 +1910,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>-2.9166666666666661</v>
+        <v>12.083333333333332</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2072,7 +2071,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>-2.9166666666666661</v>
+        <v>12.083333333333332</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2233,7 +2232,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>-2.9166666666666661</v>
+        <v>12.083333333333332</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2394,7 +2393,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>-2.9166666666666661</v>
+        <v>12.083333333333332</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2430,12 +2429,18 @@
       <c r="A86" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="23"/>
+      <c r="B86" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C86" s="13">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="D86" s="23">
+        <v>1</v>
+      </c>
       <c r="E86" s="9">
         <f>(B86-C86)*-24-D86</f>
-        <v>0</v>
+        <v>6.1833333333333336</v>
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
@@ -2540,7 +2545,7 @@
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
-        <v>0</v>
+        <v>6.1833333333333336</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2555,7 +2560,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>-2.9166666666666661</v>
+        <v>18.266666666666666</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2716,7 +2721,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>-2.9166666666666661</v>
+        <v>18.266666666666666</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2877,7 +2882,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>-2.9166666666666661</v>
+        <v>18.266666666666666</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3038,7 +3043,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>-2.9166666666666661</v>
+        <v>18.266666666666666</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3199,7 +3204,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>-2.9166666666666661</v>
+        <v>18.266666666666666</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3360,7 +3365,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>-2.9166666666666661</v>
+        <v>18.266666666666666</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3521,7 +3526,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>-2.9166666666666661</v>
+        <v>18.266666666666666</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3681,7 +3686,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>-2.9166666666666661</v>
+        <v>18.266666666666666</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3842,7 +3847,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>-2.9166666666666661</v>
+        <v>18.266666666666666</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4003,7 +4008,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>-2.9166666666666661</v>
+        <v>18.266666666666666</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michi/Michi-Zeiterfassung.xlsx
+++ b/_WIP/Michi/Michi-Zeiterfassung.xlsx
@@ -1027,7 +1027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,12 +2757,18 @@
       <c r="A106" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="23"/>
+      <c r="B106" s="13">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C106" s="13">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D106" s="23">
+        <v>0</v>
+      </c>
       <c r="E106" s="9">
         <f>(B106-C106)*-24-D106</f>
-        <v>0</v>
+        <v>5.7499999999999982</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
@@ -2867,7 +2873,7 @@
       </c>
       <c r="E113" s="27">
         <f>SUM(E106:E112)</f>
-        <v>0</v>
+        <v>5.7499999999999982</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -2882,7 +2888,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>18.266666666666666</v>
+        <v>24.016666666666666</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3043,7 +3049,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>18.266666666666666</v>
+        <v>24.016666666666666</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3079,12 +3085,18 @@
       <c r="A126" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="23"/>
+      <c r="B126" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="C126" s="13">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="D126" s="23">
+        <v>1</v>
+      </c>
       <c r="E126" s="9">
         <f>(B126-C126)*-24-D126</f>
-        <v>0</v>
+        <v>7.1166666666666671</v>
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
@@ -3094,12 +3106,18 @@
       <c r="A127" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="14"/>
+      <c r="B127" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C127" s="13">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="D127" s="14">
+        <v>2</v>
+      </c>
       <c r="E127" s="9">
         <f t="shared" ref="E127:E132" si="12">(B127-C127)*-24-D127</f>
-        <v>0</v>
+        <v>8.8333333333333304</v>
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
@@ -3109,12 +3127,18 @@
       <c r="A128" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="14"/>
+      <c r="B128" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C128" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D128" s="14">
+        <v>1</v>
+      </c>
       <c r="E128" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -3189,7 +3213,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>0</v>
+        <v>22.949999999999996</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3204,7 +3228,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>18.266666666666666</v>
+        <v>46.966666666666661</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3365,7 +3389,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>18.266666666666666</v>
+        <v>46.966666666666661</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3526,7 +3550,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>18.266666666666666</v>
+        <v>46.966666666666661</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3686,7 +3710,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>18.266666666666666</v>
+        <v>46.966666666666661</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3847,7 +3871,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>18.266666666666666</v>
+        <v>46.966666666666661</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4008,7 +4032,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>18.266666666666666</v>
+        <v>46.966666666666661</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michi/Michi-Zeiterfassung.xlsx
+++ b/_WIP/Michi/Michi-Zeiterfassung.xlsx
@@ -1027,7 +1027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3131,14 +3131,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C128" s="13">
-        <v>0.75</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="D128" s="14">
         <v>1</v>
       </c>
       <c r="E128" s="9">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8.1666666666666679</v>
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>22.949999999999996</v>
+        <v>24.116666666666667</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>46.966666666666661</v>
+        <v>48.133333333333333</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>46.966666666666661</v>
+        <v>48.133333333333333</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>46.966666666666661</v>
+        <v>48.133333333333333</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>46.966666666666661</v>
+        <v>48.133333333333333</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>46.966666666666661</v>
+        <v>48.133333333333333</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>46.966666666666661</v>
+        <v>48.133333333333333</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michi/Michi-Zeiterfassung.xlsx
+++ b/_WIP/Michi/Michi-Zeiterfassung.xlsx
@@ -1027,7 +1027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3131,14 +3131,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C128" s="13">
-        <v>0.79861111111111116</v>
+        <v>0.75</v>
       </c>
       <c r="D128" s="14">
         <v>1</v>
       </c>
       <c r="E128" s="9">
         <f t="shared" si="12"/>
-        <v>8.1666666666666679</v>
+        <v>7</v>
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>24.116666666666667</v>
+        <v>22.949999999999996</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>48.133333333333333</v>
+        <v>46.966666666666661</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>48.133333333333333</v>
+        <v>46.966666666666661</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>48.133333333333333</v>
+        <v>46.966666666666661</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>48.133333333333333</v>
+        <v>46.966666666666661</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>48.133333333333333</v>
+        <v>46.966666666666661</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>48.133333333333333</v>
+        <v>46.966666666666661</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michi/Michi-Zeiterfassung.xlsx
+++ b/_WIP/Michi/Michi-Zeiterfassung.xlsx
@@ -1027,7 +1027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3148,12 +3148,18 @@
       <c r="A129" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="14"/>
+      <c r="B129" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C129" s="13">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D129" s="14">
+        <v>1</v>
+      </c>
       <c r="E129" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
@@ -3213,7 +3219,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>22.949999999999996</v>
+        <v>30.449999999999996</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3228,7 +3234,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>46.966666666666661</v>
+        <v>54.466666666666661</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3389,7 +3395,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>46.966666666666661</v>
+        <v>54.466666666666661</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3550,7 +3556,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>46.966666666666661</v>
+        <v>54.466666666666661</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3710,7 +3716,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>46.966666666666661</v>
+        <v>54.466666666666661</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3871,7 +3877,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>46.966666666666661</v>
+        <v>54.466666666666661</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4032,7 +4038,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>46.966666666666661</v>
+        <v>54.466666666666661</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michi/Michi-Zeiterfassung.xlsx
+++ b/_WIP/Michi/Michi-Zeiterfassung.xlsx
@@ -1027,7 +1027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,12 +3270,18 @@
       <c r="A136" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="23"/>
+      <c r="B136" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C136" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D136" s="23">
+        <v>1</v>
+      </c>
       <c r="E136" s="9">
         <f>(B136-C136)*-24-D136</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F136" s="12"/>
       <c r="G136" s="12"/>
@@ -3380,7 +3386,7 @@
       </c>
       <c r="E143" s="27">
         <f>SUM(E136:E142)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -3395,7 +3401,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>54.466666666666661</v>
+        <v>61.466666666666661</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3431,12 +3437,18 @@
       <c r="A146" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B146" s="13"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="23"/>
+      <c r="B146" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C146" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D146" s="23">
+        <v>1</v>
+      </c>
       <c r="E146" s="9">
         <f>(B146-C146)*-24-D146</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
@@ -3476,12 +3488,16 @@
       <c r="A149" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B149" s="13"/>
-      <c r="C149" s="13"/>
+      <c r="B149" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C149" s="13">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D149" s="14"/>
       <c r="E149" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6.9999999999999991</v>
       </c>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
@@ -3541,7 +3557,7 @@
       </c>
       <c r="E153" s="27">
         <f>SUM(E146:E152)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -3556,7 +3572,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>54.466666666666661</v>
+        <v>74.466666666666669</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3716,7 +3732,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>54.466666666666661</v>
+        <v>74.466666666666669</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3877,7 +3893,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>54.466666666666661</v>
+        <v>74.466666666666669</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4038,7 +4054,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>54.466666666666661</v>
+        <v>74.466666666666669</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michi/Michi-Zeiterfassung.xlsx
+++ b/_WIP/Michi/Michi-Zeiterfassung.xlsx
@@ -1027,7 +1027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3608,12 +3608,18 @@
       <c r="A156" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B156" s="13"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="23"/>
+      <c r="B156" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C156" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D156" s="23">
+        <v>1</v>
+      </c>
       <c r="E156" s="9">
         <f>(B156-C156)*-24-D156</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
@@ -3623,12 +3629,18 @@
       <c r="A157" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B157" s="13"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="14"/>
+      <c r="B157" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C157" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D157" s="14">
+        <v>1</v>
+      </c>
       <c r="E157" s="9">
         <f t="shared" ref="E157:E161" si="15">(B157-C157)*-24-D157</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
@@ -3638,12 +3650,18 @@
       <c r="A158" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="14"/>
+      <c r="B158" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C158" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D158" s="14">
+        <v>1</v>
+      </c>
       <c r="E158" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F158" s="12"/>
       <c r="G158" s="12"/>
@@ -3653,12 +3671,18 @@
       <c r="A159" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B159" s="13"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="14"/>
+      <c r="B159" s="13">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C159" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D159" s="14">
+        <v>1</v>
+      </c>
       <c r="E159" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
@@ -3717,7 +3741,7 @@
       </c>
       <c r="E163" s="27">
         <f>SUM(E156:E162)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -3732,7 +3756,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>74.466666666666669</v>
+        <v>99.466666666666669</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3768,12 +3792,18 @@
       <c r="A166" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B166" s="13"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="23"/>
+      <c r="B166" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C166" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D166" s="23">
+        <v>1</v>
+      </c>
       <c r="E166" s="9">
         <f>(B166-C166)*-24-D166</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F166" s="12"/>
       <c r="G166" s="12"/>
@@ -3878,7 +3908,7 @@
       </c>
       <c r="E173" s="27">
         <f>SUM(E166:E172)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -3893,7 +3923,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>74.466666666666669</v>
+        <v>105.46666666666667</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4054,7 +4084,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>74.466666666666669</v>
+        <v>105.46666666666667</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michi/Michi-Zeiterfassung.xlsx
+++ b/_WIP/Michi/Michi-Zeiterfassung.xlsx
@@ -1027,7 +1027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3489,15 +3489,17 @@
         <v>114</v>
       </c>
       <c r="B149" s="13">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C149" s="13">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D149" s="14"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D149" s="14">
+        <v>1</v>
+      </c>
       <c r="E149" s="9">
         <f t="shared" si="14"/>
-        <v>6.9999999999999991</v>
+        <v>6</v>
       </c>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
@@ -3507,12 +3509,16 @@
       <c r="A150" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
+      <c r="B150" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C150" s="13">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D150" s="14"/>
       <c r="E150" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6.9999999999999991</v>
       </c>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
@@ -3557,7 +3563,7 @@
       </c>
       <c r="E153" s="27">
         <f>SUM(E146:E152)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -3572,7 +3578,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>74.466666666666669</v>
+        <v>80.466666666666669</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3756,7 +3762,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>99.466666666666669</v>
+        <v>105.46666666666667</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3796,14 +3802,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C166" s="13">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D166" s="23">
         <v>1</v>
       </c>
       <c r="E166" s="9">
         <f>(B166-C166)*-24-D166</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F166" s="12"/>
       <c r="G166" s="12"/>
@@ -3813,12 +3819,18 @@
       <c r="A167" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B167" s="13"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="14"/>
+      <c r="B167" s="13">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C167" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D167" s="14">
+        <v>1</v>
+      </c>
       <c r="E167" s="9">
         <f t="shared" ref="E167:E172" si="16">(B167-C167)*-24-D167</f>
-        <v>0</v>
+        <v>5.0000000000000018</v>
       </c>
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
@@ -3828,12 +3840,16 @@
       <c r="A168" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B168" s="13"/>
-      <c r="C168" s="13"/>
+      <c r="B168" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C168" s="13">
+        <v>0.75</v>
+      </c>
       <c r="D168" s="14"/>
       <c r="E168" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
@@ -3843,12 +3859,16 @@
       <c r="A169" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B169" s="13"/>
-      <c r="C169" s="13"/>
+      <c r="B169" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C169" s="13">
+        <v>0.75</v>
+      </c>
       <c r="D169" s="14"/>
       <c r="E169" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
@@ -3858,12 +3878,16 @@
       <c r="A170" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B170" s="13"/>
-      <c r="C170" s="13"/>
+      <c r="B170" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C170" s="13">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D170" s="14"/>
       <c r="E170" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
@@ -3908,7 +3932,7 @@
       </c>
       <c r="E173" s="27">
         <f>SUM(E166:E172)</f>
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -3923,7 +3947,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>105.46666666666667</v>
+        <v>140.46666666666667</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4084,7 +4108,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>105.46666666666667</v>
+        <v>140.46666666666667</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michi/Michi-Zeiterfassung.xlsx
+++ b/_WIP/Michi/Michi-Zeiterfassung.xlsx
@@ -1027,7 +1027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,10 +3846,12 @@
       <c r="C168" s="13">
         <v>0.75</v>
       </c>
-      <c r="D168" s="14"/>
+      <c r="D168" s="14">
+        <v>1</v>
+      </c>
       <c r="E168" s="9">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
@@ -3863,12 +3865,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C169" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="D169" s="14"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D169" s="14">
+        <v>1</v>
+      </c>
       <c r="E169" s="9">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
@@ -3932,7 +3936,7 @@
       </c>
       <c r="E173" s="27">
         <f>SUM(E166:E172)</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -3947,7 +3951,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>140.46666666666667</v>
+        <v>137.46666666666667</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4108,7 +4112,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>140.46666666666667</v>
+        <v>137.46666666666667</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michi/Michi-Zeiterfassung.xlsx
+++ b/_WIP/Michi/Michi-Zeiterfassung.xlsx
@@ -1027,7 +1027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3888,10 +3888,12 @@
       <c r="C170" s="13">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D170" s="14"/>
+      <c r="D170" s="14">
+        <v>1</v>
+      </c>
       <c r="E170" s="9">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
@@ -3936,7 +3938,7 @@
       </c>
       <c r="E173" s="27">
         <f>SUM(E166:E172)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -3951,7 +3953,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>137.46666666666667</v>
+        <v>136.46666666666667</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4112,7 +4114,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>137.46666666666667</v>
+        <v>136.46666666666667</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
